--- a/docs/Use Case Tabellen.xlsx
+++ b/docs/Use Case Tabellen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\WebstormProjects\fakeStore\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6E2A17-085F-4AC8-8AA2-6B230D548B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88386ED9-4B6C-4C18-A447-E0F072BE84E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UseCases" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,7 +729,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,6 +797,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -852,11 +857,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,9 +1143,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:K132"/>
+  <dimension ref="D4:K141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1154,883 +1159,896 @@
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>3</v>
       </c>
       <c r="F4" s="5"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>5</v>
+      <c r="D5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="F5" s="5"/>
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>7</v>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>5</v>
       </c>
       <c r="F6" s="5"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>9</v>
+      <c r="D7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>7</v>
       </c>
       <c r="F7" s="5"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="40"/>
-      <c r="E8" s="15" t="s">
-        <v>33</v>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="F8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="40"/>
-      <c r="E9" s="15" t="s">
-        <v>10</v>
+    <row r="9" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="41"/>
+      <c r="E9" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="5"/>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="40"/>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="41"/>
+      <c r="E11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="40"/>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="41"/>
+      <c r="E12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="40"/>
-      <c r="E12" s="15" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="41"/>
+      <c r="E13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="4:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D13" s="40"/>
-      <c r="E13" s="15" t="s">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="41"/>
+      <c r="E14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="4:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="D14" s="40"/>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="4:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="D15" s="41"/>
+      <c r="E15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="33"/>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="40"/>
-      <c r="E15" s="15" t="s">
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="41"/>
+      <c r="E16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="40"/>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="41"/>
+      <c r="E17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="13" t="s">
+      <c r="F17" s="5"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="40" t="s">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="40"/>
-      <c r="E19" s="15" t="s">
+    <row r="20" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D20" s="41"/>
+      <c r="E20" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D20" s="40"/>
-      <c r="E20" s="15" t="s">
+    <row r="21" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="41"/>
+      <c r="E21" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D21" s="41" t="s">
+    <row r="22" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D22" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D22" s="42"/>
-      <c r="E22" s="24" t="s">
+    <row r="23" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D23" s="43"/>
+      <c r="E23" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="43"/>
-      <c r="E23" s="25" t="s">
+    <row r="24" spans="4:9" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="44"/>
+      <c r="E24" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="12" t="s">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="12" t="s">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E29" s="39" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D28" s="12" t="s">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E30" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D29" s="12" t="s">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E31" s="39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="40" t="s">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="40"/>
-      <c r="E31" s="15" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="41"/>
+      <c r="E33" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="40"/>
-      <c r="E32" s="15" t="s">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="41"/>
+      <c r="E34" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="40"/>
-      <c r="E33" s="15" t="s">
+    <row r="35" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D35" s="41"/>
+      <c r="E35" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="4:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="40"/>
-      <c r="E34" s="15" t="s">
+    <row r="36" spans="4:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="41"/>
+      <c r="E36" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D35" s="40"/>
-      <c r="E35" s="15" t="s">
+    <row r="37" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="41"/>
+      <c r="E37" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="13" t="s">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="40" t="s">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="40"/>
-      <c r="E38" s="15" t="s">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="41"/>
+      <c r="E40" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D39" s="40"/>
-      <c r="E39" s="15" t="s">
+    <row r="41" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D41" s="41"/>
+      <c r="E41" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="40"/>
-      <c r="E40" s="15" t="s">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="41"/>
+      <c r="E42" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="9"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="8"/>
-      <c r="E42" s="7"/>
-    </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="8"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E46" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="13" t="s">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E47" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="13" t="s">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E48" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="13" t="s">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E49" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="40" t="s">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D48" s="40"/>
-      <c r="E48" s="15" t="s">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="41"/>
+      <c r="E51" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D49" s="40"/>
-      <c r="E49" s="15" t="s">
+    <row r="52" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="41"/>
+      <c r="E52" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="13" t="s">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E53" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D53" s="13" t="s">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="E57" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D54" s="13" t="s">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="21" t="s">
+      <c r="E58" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D55" s="13" t="s">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E59" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D56" s="13" t="s">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="58" t="s">
+      <c r="E60" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="40" t="s">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E61" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="40"/>
-      <c r="E58" s="15" t="s">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62" s="41"/>
+      <c r="E62" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="40"/>
-      <c r="E59" s="15" t="s">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="41"/>
+      <c r="E63" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="40"/>
-      <c r="E60" s="15" t="s">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="41"/>
+      <c r="E64" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D61" s="40"/>
-      <c r="E61" s="15" t="s">
+    <row r="65" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D65" s="41"/>
+      <c r="E65" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D62" s="40"/>
-      <c r="E62" s="15" t="s">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="41"/>
+      <c r="E66" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D63" s="13" t="s">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="23" t="s">
+      <c r="E67" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D64" s="40" t="s">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E68" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="40"/>
-      <c r="E65" s="15" t="s">
+    <row r="69" spans="4:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="41"/>
+      <c r="E69" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="40"/>
-      <c r="E66" s="15" t="s">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="41"/>
+      <c r="E70" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="13" t="s">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E74" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="13" t="s">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="21" t="s">
+      <c r="E75" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D72" s="13" t="s">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E76" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="13" t="s">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E77" s="39" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D75" s="14"/>
-      <c r="E75" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D76" s="14"/>
-      <c r="E76" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D77" s="14"/>
-      <c r="E77" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D78" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="13"/>
+      <c r="E79" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="13"/>
+      <c r="E80" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D81" s="13"/>
+      <c r="E81" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E82" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D79" s="40" t="s">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E83" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D80" s="40"/>
-      <c r="E80" s="15" t="s">
+    <row r="84" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D84" s="41"/>
+      <c r="E84" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D81" s="40" t="s">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E85" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D82" s="40"/>
-      <c r="E82" s="23" t="s">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="41"/>
+      <c r="E86" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D83" s="10"/>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D86" s="12" t="s">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="10"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E90" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D87" s="12" t="s">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="26" t="s">
+      <c r="E91" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D88" s="12" t="s">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="26" t="s">
+      <c r="E92" s="25" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D89" s="12" t="s">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="27" t="s">
+      <c r="E93" s="26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D90" s="40" t="s">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E94" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D91" s="40"/>
-      <c r="E91" s="17" t="s">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" s="41"/>
+      <c r="E95" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D92" s="40"/>
-      <c r="E92" s="17" t="s">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="41"/>
+      <c r="E96" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D93" s="40"/>
-      <c r="E93" s="17" t="s">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="41"/>
+      <c r="E97" s="16" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D94" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D95" s="11"/>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D96" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D97" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E98" s="26" t="s">
+      <c r="E104" s="25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D99" s="12" t="s">
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E105" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D100" s="40" t="s">
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="17" t="s">
+      <c r="E106" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D101" s="40"/>
-      <c r="E101" s="18" t="s">
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" s="41"/>
+      <c r="E107" s="17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D102" s="40"/>
-      <c r="E102" s="17" t="s">
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" s="41"/>
+      <c r="E108" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D103" s="40"/>
-      <c r="E103" s="18" t="s">
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="41"/>
+      <c r="E109" s="17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D104" s="40"/>
-      <c r="E104" s="17" t="s">
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="41"/>
+      <c r="E110" s="16" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D105" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D106" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D107" s="40"/>
-      <c r="E107" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D108" s="40"/>
-      <c r="E108" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D109" s="11"/>
-      <c r="E109" s="7"/>
-    </row>
-    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D110" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="41"/>
+      <c r="E113" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="41"/>
+      <c r="E114" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="59" t="s">
+      <c r="E119" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D112" s="12" t="s">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="27" t="s">
+      <c r="E120" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D113" s="12" t="s">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E121" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D114" s="40" t="s">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="20" t="s">
+      <c r="E122" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D115" s="40"/>
-      <c r="E115" s="20" t="s">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="41"/>
+      <c r="E123" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D116" s="40"/>
-      <c r="E116" s="20" t="s">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="41"/>
+      <c r="E124" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D117" s="40"/>
-      <c r="E117" s="20" t="s">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="41"/>
+      <c r="E125" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D118" s="13" t="s">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="28" t="s">
+      <c r="E126" s="27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D119" s="10"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D121" s="12" t="s">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="10"/>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="10"/>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E121" s="12" t="s">
+      <c r="E130" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D122" s="12" t="s">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E122" s="59" t="s">
+      <c r="E131" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D123" s="12" t="s">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D132" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="27" t="s">
+      <c r="E132" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D124" s="12" t="s">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D133" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E133" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D125" s="40" t="s">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D134" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E134" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D126" s="40"/>
-      <c r="E126" s="20" t="s">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135" s="41"/>
+      <c r="E135" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D127" s="40"/>
-      <c r="E127" s="20" t="s">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="41"/>
+      <c r="E136" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D128" s="40"/>
-      <c r="E128" s="20" t="s">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D137" s="41"/>
+      <c r="E137" s="19" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D129" s="13" t="s">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D138" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E138" s="27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D132" s="3"/>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D141" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D30:D35"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D7:D16"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="D8:D17"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="D106:D110"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D39:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2040,143 +2058,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A8C203-F21E-415B-B411-13FB1AA14659}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="39"/>
+    <col min="1" max="16384" width="8.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="30" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="29" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="29" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="32" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="37" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>12</v>
       </c>
     </row>
